--- a/resources/wheels/225 - Черенков В.xlsx
+++ b/resources/wheels/225 - Черенков В.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -691,16 +691,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -899,9 +899,9 @@
       <c r="F16" s="19">
         <v>2.4</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>2.4</v>
+        <v>10.802</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -923,7 +923,9 @@
       <c r="E18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="19" t="n">
+        <v>2.743</v>
+      </c>
       <c r="G18" s="19"/>
       <c r="H18" s="1"/>
     </row>
@@ -933,7 +935,9 @@
       <c r="E19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="19" t="n">
+        <v>3.256</v>
+      </c>
       <c r="G19" s="19"/>
       <c r="H19" s="1"/>
     </row>
@@ -943,7 +947,9 @@
       <c r="E20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="19" t="n">
+        <v>2.403</v>
+      </c>
       <c r="G20" s="19"/>
       <c r="H20" s="1"/>
     </row>
@@ -1503,16 +1509,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1711,9 +1717,9 @@
       <c r="F16" s="19">
         <v>34.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.8</v>
+        <v>54.202</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1807,7 +1813,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>2.743</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1817,7 +1825,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.256</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1827,7 +1837,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.403</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -2346,16 +2358,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2554,9 +2566,9 @@
       <c r="F16" s="19">
         <v>34.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.8</v>
+        <v>54.202</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2650,7 +2662,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>2.743</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -2660,7 +2674,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.256</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -2670,7 +2686,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.403</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -3189,16 +3207,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3397,9 +3415,9 @@
       <c r="F16" s="19">
         <v>24</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>34.9</v>
+        <v>43.302</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3493,7 +3511,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>2.743</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -3503,7 +3523,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.256</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -3513,7 +3535,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.403</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4032,16 +4056,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4240,9 +4264,9 @@
       <c r="F16" s="19">
         <v>24</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>34.9</v>
+        <v>43.302</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4336,7 +4360,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>2.743</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -4346,7 +4372,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.256</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -4356,7 +4384,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.403</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4875,16 +4905,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5083,9 +5113,9 @@
       <c r="F16" s="19">
         <v>34.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.8</v>
+        <v>54.202</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5179,7 +5209,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>2.743</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -5189,7 +5221,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.256</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -5199,7 +5233,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.403</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -5718,16 +5754,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5926,9 +5962,9 @@
       <c r="F16" s="19">
         <v>34.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.8</v>
+        <v>54.202</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6022,7 +6058,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>2.743</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6032,7 +6070,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.256</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6042,7 +6082,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.403</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -6561,16 +6603,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6769,9 +6811,9 @@
       <c r="F16" s="19">
         <v>34.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.8</v>
+        <v>54.202</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6865,7 +6907,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>2.743</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6875,7 +6919,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.256</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6885,7 +6931,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.403</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -7404,16 +7452,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7612,9 +7660,9 @@
       <c r="F16" s="19">
         <v>34.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.8</v>
+        <v>54.202</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7708,7 +7756,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>2.743</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -7718,7 +7768,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.256</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -7728,7 +7780,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.403</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -8247,16 +8301,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8455,9 +8509,9 @@
       <c r="F16" s="19">
         <v>34.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.8</v>
+        <v>54.202</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8551,7 +8605,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>2.743</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -8561,7 +8617,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.256</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -8571,7 +8629,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.403</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -9090,16 +9150,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9298,9 +9358,9 @@
       <c r="F16" s="19">
         <v>34.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>45.8</v>
+        <v>54.202</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9394,7 +9454,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>2.743</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -9404,7 +9466,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.256</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -9414,7 +9478,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.403</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>

--- a/resources/wheels/225 - Черенков В.xlsx
+++ b/resources/wheels/225 - Черенков В.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="56">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -161,6 +161,42 @@
   </si>
   <si>
     <t>МАЗ 5516-А5-380</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -901,7 +937,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>10.802</v>
+        <v>15.059999999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -923,8 +959,8 @@
       <c r="E18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="19" t="n">
-        <v>2.743</v>
+      <c r="F18" s="19">
+        <v>2.7429999999999999</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="1"/>
@@ -935,8 +971,8 @@
       <c r="E19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="19" t="n">
-        <v>3.256</v>
+      <c r="F19" s="19">
+        <v>3.2559999999999998</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="1"/>
@@ -947,7 +983,7 @@
       <c r="E20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="19" t="n">
+      <c r="F20" s="19">
         <v>2.403</v>
       </c>
       <c r="G20" s="19"/>
@@ -959,7 +995,9 @@
       <c r="E21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="19">
+        <v>1.3919999999999999</v>
+      </c>
       <c r="G21" s="19"/>
       <c r="H21" s="1"/>
     </row>
@@ -969,7 +1007,9 @@
       <c r="E22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="19">
+        <v>2.8660000000000001</v>
+      </c>
       <c r="G22" s="19"/>
       <c r="H22" s="1"/>
     </row>
@@ -979,7 +1019,9 @@
       <c r="E23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G23" s="19"/>
       <c r="H23" s="1"/>
     </row>
@@ -1504,7 +1546,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1761,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.202</v>
+        <v>58.568</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1813,8 +1855,8 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19" t="n">
-        <v>2.743</v>
+      <c r="F24" s="19">
+        <v>2.7429999999999999</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
@@ -1825,8 +1867,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>3.256</v>
+      <c r="F25" s="19">
+        <v>3.2559999999999998</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -1837,7 +1879,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.403</v>
       </c>
       <c r="G26" s="19"/>
@@ -1849,7 +1891,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>1.3919999999999999</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -1859,7 +1903,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="F28" s="19">
+        <v>2.8660000000000001</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1868,14 +1914,20 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.108</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
     </row>
@@ -1883,7 +1935,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -1892,7 +1946,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -1901,7 +1957,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -1910,7 +1968,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -1919,7 +1979,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -1928,7 +1990,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -1937,7 +2001,9 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="1"/>
@@ -1946,7 +2012,9 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
@@ -1955,7 +2023,9 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="1"/>
@@ -1964,7 +2034,9 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="20"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="1"/>
@@ -1973,7 +2045,9 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
@@ -2353,7 +2427,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2568,7 +2642,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.202</v>
+        <v>58.568</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2662,8 +2736,8 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19" t="n">
-        <v>2.743</v>
+      <c r="F24" s="19">
+        <v>2.7429999999999999</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
@@ -2674,8 +2748,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>3.256</v>
+      <c r="F25" s="19">
+        <v>3.2559999999999998</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -2686,7 +2760,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.403</v>
       </c>
       <c r="G26" s="19"/>
@@ -2698,7 +2772,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>1.3919999999999999</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -2708,7 +2784,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="F28" s="19">
+        <v>2.8660000000000001</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2717,14 +2795,20 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.108</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
     </row>
@@ -2732,7 +2816,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -2741,7 +2827,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -2750,7 +2838,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -2759,7 +2849,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -2768,7 +2860,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -2777,7 +2871,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -2786,7 +2882,9 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="1"/>
@@ -2795,7 +2893,9 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
@@ -2804,7 +2904,9 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="1"/>
@@ -2813,7 +2915,9 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="20"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="1"/>
@@ -2822,7 +2926,9 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
@@ -3201,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3417,7 +3523,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>43.302</v>
+        <v>47.668</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3511,8 +3617,8 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19" t="n">
-        <v>2.743</v>
+      <c r="F24" s="19">
+        <v>2.7429999999999999</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
@@ -3523,8 +3629,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>3.256</v>
+      <c r="F25" s="19">
+        <v>3.2559999999999998</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -3535,7 +3641,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.403</v>
       </c>
       <c r="G26" s="19"/>
@@ -3547,7 +3653,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>1.3919999999999999</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -3557,7 +3665,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="F28" s="19">
+        <v>2.8660000000000001</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3566,14 +3676,20 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.108</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
     </row>
@@ -3581,7 +3697,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -3590,7 +3708,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -3599,7 +3719,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -3608,7 +3730,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -3617,7 +3741,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -3626,7 +3752,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -3635,7 +3763,9 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="1"/>
@@ -3644,7 +3774,9 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
@@ -3653,7 +3785,9 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="1"/>
@@ -3662,7 +3796,9 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="20"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="1"/>
@@ -3671,7 +3807,9 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
@@ -4051,7 +4189,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4266,7 +4404,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>43.302</v>
+        <v>47.668</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4360,8 +4498,8 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19" t="n">
-        <v>2.743</v>
+      <c r="F24" s="19">
+        <v>2.7429999999999999</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
@@ -4372,8 +4510,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>3.256</v>
+      <c r="F25" s="19">
+        <v>3.2559999999999998</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -4384,7 +4522,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.403</v>
       </c>
       <c r="G26" s="19"/>
@@ -4396,7 +4534,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>1.3919999999999999</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -4406,7 +4546,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="F28" s="19">
+        <v>2.8660000000000001</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4415,14 +4557,20 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.108</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
     </row>
@@ -4430,7 +4578,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -4439,7 +4589,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -4448,7 +4600,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -4457,7 +4611,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -4466,7 +4622,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -4475,7 +4633,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -4484,7 +4644,9 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="1"/>
@@ -4493,7 +4655,9 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
@@ -4502,7 +4666,9 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="1"/>
@@ -4511,7 +4677,9 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="20"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="1"/>
@@ -4520,7 +4688,9 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
@@ -4900,7 +5070,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5115,7 +5285,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.202</v>
+        <v>58.568</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5209,8 +5379,8 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19" t="n">
-        <v>2.743</v>
+      <c r="F24" s="19">
+        <v>2.7429999999999999</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
@@ -5221,8 +5391,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>3.256</v>
+      <c r="F25" s="19">
+        <v>3.2559999999999998</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -5233,7 +5403,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.403</v>
       </c>
       <c r="G26" s="19"/>
@@ -5245,7 +5415,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>1.3919999999999999</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -5255,7 +5427,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="F28" s="19">
+        <v>2.8660000000000001</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5264,14 +5438,20 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.108</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
     </row>
@@ -5279,7 +5459,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -5288,7 +5470,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -5297,7 +5481,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -5306,7 +5492,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -5315,7 +5503,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -5324,7 +5514,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -5333,7 +5525,9 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="1"/>
@@ -5342,7 +5536,9 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
@@ -5351,7 +5547,9 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="1"/>
@@ -5360,7 +5558,9 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="20"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="1"/>
@@ -5369,7 +5569,9 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
@@ -5749,7 +5951,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5964,7 +6166,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.202</v>
+        <v>58.568</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6058,8 +6260,8 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19" t="n">
-        <v>2.743</v>
+      <c r="F24" s="19">
+        <v>2.7429999999999999</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
@@ -6070,8 +6272,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>3.256</v>
+      <c r="F25" s="19">
+        <v>3.2559999999999998</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -6082,7 +6284,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.403</v>
       </c>
       <c r="G26" s="19"/>
@@ -6094,7 +6296,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>1.3919999999999999</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -6104,7 +6308,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="F28" s="19">
+        <v>2.8660000000000001</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -6113,14 +6319,20 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.108</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
     </row>
@@ -6128,7 +6340,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -6137,7 +6351,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -6146,7 +6362,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -6155,7 +6373,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -6164,7 +6384,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -6173,7 +6395,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -6182,7 +6406,9 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="1"/>
@@ -6191,7 +6417,9 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
@@ -6200,7 +6428,9 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="1"/>
@@ -6209,7 +6439,9 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="20"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="1"/>
@@ -6218,7 +6450,9 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
@@ -6598,7 +6832,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6813,7 +7047,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.202</v>
+        <v>58.568</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6907,8 +7141,8 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19" t="n">
-        <v>2.743</v>
+      <c r="F24" s="19">
+        <v>2.7429999999999999</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
@@ -6919,8 +7153,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>3.256</v>
+      <c r="F25" s="19">
+        <v>3.2559999999999998</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -6931,7 +7165,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.403</v>
       </c>
       <c r="G26" s="19"/>
@@ -6943,7 +7177,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>1.3919999999999999</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -6953,7 +7189,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="F28" s="19">
+        <v>2.8660000000000001</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -6962,14 +7200,20 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.108</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
     </row>
@@ -6977,7 +7221,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -6986,7 +7232,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -6995,7 +7243,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -7004,7 +7254,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -7013,7 +7265,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -7022,7 +7276,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -7031,7 +7287,9 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="1"/>
@@ -7040,7 +7298,9 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
@@ -7049,7 +7309,9 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="1"/>
@@ -7058,7 +7320,9 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="20"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="1"/>
@@ -7067,7 +7331,9 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
@@ -7447,7 +7713,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7662,7 +7928,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.202</v>
+        <v>58.568</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7756,8 +8022,8 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19" t="n">
-        <v>2.743</v>
+      <c r="F24" s="19">
+        <v>2.7429999999999999</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
@@ -7768,8 +8034,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>3.256</v>
+      <c r="F25" s="19">
+        <v>3.2559999999999998</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -7780,7 +8046,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.403</v>
       </c>
       <c r="G26" s="19"/>
@@ -7792,7 +8058,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>1.3919999999999999</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -7802,7 +8070,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="F28" s="19">
+        <v>2.8660000000000001</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -7811,14 +8081,20 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.108</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
     </row>
@@ -7826,7 +8102,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -7835,7 +8113,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -7844,7 +8124,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -7853,7 +8135,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -7862,7 +8146,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -7871,7 +8157,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -7880,7 +8168,9 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="1"/>
@@ -7889,7 +8179,9 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
@@ -7898,7 +8190,9 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="1"/>
@@ -7907,7 +8201,9 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="20"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="1"/>
@@ -7916,7 +8212,9 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
@@ -8296,7 +8594,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8511,7 +8809,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.202</v>
+        <v>58.568</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8605,8 +8903,8 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19" t="n">
-        <v>2.743</v>
+      <c r="F24" s="19">
+        <v>2.7429999999999999</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
@@ -8617,8 +8915,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>3.256</v>
+      <c r="F25" s="19">
+        <v>3.2559999999999998</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -8629,7 +8927,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.403</v>
       </c>
       <c r="G26" s="19"/>
@@ -8641,7 +8939,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>1.3919999999999999</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -8651,7 +8951,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="F28" s="19">
+        <v>2.8660000000000001</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8660,14 +8962,20 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.108</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
     </row>
@@ -8675,7 +8983,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -8684,7 +8994,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -8693,7 +9005,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -8702,7 +9016,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -8711,7 +9027,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -8720,7 +9038,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -8729,7 +9049,9 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="1"/>
@@ -8738,7 +9060,9 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
@@ -8747,7 +9071,9 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="1"/>
@@ -8756,7 +9082,9 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="20"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="1"/>
@@ -8765,7 +9093,9 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
@@ -9145,7 +9475,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9360,7 +9690,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>54.202</v>
+        <v>58.568</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9454,8 +9784,8 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19" t="n">
-        <v>2.743</v>
+      <c r="F24" s="19">
+        <v>2.7429999999999999</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
@@ -9466,8 +9796,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>3.256</v>
+      <c r="F25" s="19">
+        <v>3.2559999999999998</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -9478,7 +9808,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.403</v>
       </c>
       <c r="G26" s="19"/>
@@ -9490,7 +9820,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>1.3919999999999999</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -9500,7 +9832,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="F28" s="19">
+        <v>2.8660000000000001</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -9509,14 +9843,20 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.108</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
     </row>
@@ -9524,7 +9864,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -9533,7 +9875,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -9542,7 +9886,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -9551,7 +9897,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -9560,7 +9908,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -9569,7 +9919,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -9578,7 +9930,9 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="1"/>
@@ -9587,7 +9941,9 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="1"/>
@@ -9596,7 +9952,9 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="1"/>
@@ -9605,7 +9963,9 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="20"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="1"/>
@@ -9614,7 +9974,9 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="1"/>
